--- a/doc/91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96C2AB2-97A5-D245-A983-0E5561B8CF4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274CD0F7-C817-A048-A0A2-6BF970818971}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="0621" sheetId="9" r:id="rId7"/>
     <sheet name="0628" sheetId="10" r:id="rId8"/>
     <sheet name="0705" sheetId="11" r:id="rId9"/>
+    <sheet name="0712" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -863,6 +864,43 @@
     <rPh sb="0" eb="1">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物完成。</t>
+    <rPh sb="0" eb="2">
+      <t>セイカブt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展示会資料作成</t>
+    <rPh sb="0" eb="7">
+      <t>テンジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物最終チェック</t>
+    <rPh sb="0" eb="2">
+      <t>セイカブt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>botの口調変更
+展示会の環境設定</t>
+    <rPh sb="0" eb="2">
+      <t>テンjテンj</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β版テストに向けて調整中</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1237,6 +1275,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1488,19 +1529,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1941,43 +1979,43 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
@@ -2045,12 +2083,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
@@ -2079,42 +2117,42 @@
         <v>24</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="35"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2133,6 +2171,305 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6F857-CF2A-F54F-846E-490E51AC8CE0}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43651</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="110"/>
+      <c r="E10" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="98"/>
+      <c r="E12" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="110"/>
+      <c r="E13" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2219,45 +2556,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2300,22 +2637,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="66" t="s">
+      <c r="F10" s="77"/>
+      <c r="G10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="66" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="67"/>
+      <c r="J10" s="68"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2329,90 +2666,90 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="66" t="s">
+      <c r="F11" s="77"/>
+      <c r="G11" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="66" t="s">
+      <c r="H11" s="68"/>
+      <c r="I11" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="72" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="70"/>
+      <c r="G14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="72" t="s">
+      <c r="H14" s="74"/>
+      <c r="I14" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2524,45 +2861,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2605,18 +2942,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2628,14 +2965,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2643,72 +2980,72 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="72" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="70"/>
+      <c r="G14" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="72" t="s">
+      <c r="H14" s="74"/>
+      <c r="I14" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2820,45 +3157,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2901,112 +3238,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="94" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="94" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="95"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="84" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="82" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="82" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="84" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="94" t="s">
+      <c r="F12" s="86"/>
+      <c r="G12" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="94" t="s">
+      <c r="H12" s="96"/>
+      <c r="I12" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="95"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="92" t="s">
+      <c r="F13" s="88"/>
+      <c r="G13" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3117,45 +3454,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3198,102 +3535,102 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="86" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="92" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="92" t="s">
+      <c r="H11" s="94"/>
+      <c r="I11" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="93"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="83"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="92" t="s">
+      <c r="F13" s="88"/>
+      <c r="G13" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="92" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="93"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3401,41 +3738,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3478,111 +3815,109 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="92" t="s">
+      <c r="F10" s="88"/>
+      <c r="G10" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92" t="s">
+      <c r="H10" s="94"/>
+      <c r="I10" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="84" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="88"/>
+      <c r="G14" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="92" t="s">
+      <c r="H14" s="82"/>
+      <c r="I14" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3599,6 +3934,8 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3689,41 +4026,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3766,104 +4103,104 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="84" t="s">
+      <c r="D12" s="102"/>
+      <c r="E12" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="94"/>
+      <c r="G14" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="92" t="s">
+      <c r="H14" s="82"/>
+      <c r="I14" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="93"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3974,45 +4311,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -4055,110 +4392,110 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="92" t="s">
+      <c r="F10" s="88"/>
+      <c r="G10" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92" t="s">
+      <c r="H10" s="94"/>
+      <c r="I10" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="90" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="58" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4197,7 +4534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3074DE62-2D73-C84A-8245-5AFE2BBD4A70}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -4276,41 +4613,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -4353,110 +4690,110 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="90" t="s">
+      <c r="D11" s="102"/>
+      <c r="E11" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="110" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="94" t="s">
+      <c r="H14" s="112"/>
+      <c r="I14" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="95"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="110" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="113"/>
       <c r="H15" s="113"/>
       <c r="I15" s="113"/>
@@ -4464,17 +4801,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
@@ -4490,6 +4823,10 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274CD0F7-C817-A048-A0A2-6BF970818971}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C24886C3-7FCF-C242-8345-864237031666}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="0628" sheetId="10" r:id="rId8"/>
     <sheet name="0705" sheetId="11" r:id="rId9"/>
     <sheet name="0712" sheetId="12" r:id="rId10"/>
+    <sheet name="0719" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="141">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -901,6 +901,41 @@
   </si>
   <si>
     <t>β版テストに向けて調整中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強会の合間にβ版作、各種発表資料作成</t>
+    <rPh sb="0" eb="1">
+      <t>ベンキョ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強会最終準備</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表資料手直し</t>
+    <rPh sb="0" eb="27">
+      <t>ハッピョ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>テンジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村の引き継ぎ
+フォームの作成</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1362,6 +1397,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,30 +1453,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1415,21 +1465,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1439,6 +1474,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,12 +1516,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,30 +1540,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1517,21 +1552,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,6 +1571,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2178,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6F857-CF2A-F54F-846E-490E51AC8CE0}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
@@ -2257,41 +2292,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2334,126 +2369,111 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="91" t="s">
+      <c r="D11" s="88"/>
+      <c r="E11" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="95" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="83" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -2466,6 +2486,316 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5953DC62-BD8E-FB43-9EAE-A64215969E0D}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43651</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="100"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="94"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2563,14 +2893,14 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -2579,10 +2909,10 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -2591,10 +2921,10 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2637,22 +2967,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="77" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="67" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="67"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2666,76 +2996,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="73" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="73" t="s">
+      <c r="H12" s="56"/>
+      <c r="I12" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="73" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="73" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -2744,15 +3074,23 @@
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -2763,14 +3101,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2861,45 +3191,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2942,18 +3272,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="77" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2965,14 +3295,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2980,75 +3310,82 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="73" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="73" t="s">
+      <c r="H12" s="56"/>
+      <c r="I12" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="69" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="73" t="s">
+      <c r="H14" s="56"/>
+      <c r="I14" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -3060,13 +3397,6 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3157,45 +3487,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3238,122 +3568,115 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="96"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="85" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="83" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="94"/>
+      <c r="I11" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="84"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="85" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="95" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="95" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="96"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="87" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="93" t="s">
+      <c r="F13" s="96"/>
+      <c r="G13" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="93" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="94"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -3364,6 +3687,13 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,45 +3784,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3535,105 +3865,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="93" t="s">
+      <c r="F11" s="96"/>
+      <c r="G11" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="93" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="94"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="87" t="s">
+      <c r="D13" s="92"/>
+      <c r="E13" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="93" t="s">
+      <c r="F13" s="96"/>
+      <c r="G13" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="93" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="94"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E13:F15"/>
     <mergeCell ref="G13:H15"/>
@@ -3641,13 +3978,6 @@
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="I11:J12"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3738,41 +4068,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3815,109 +4145,111 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="102"/>
+      <c r="I10" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="94"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="85" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="87" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="81" t="s">
+      <c r="F14" s="96"/>
+      <c r="G14" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="93" t="s">
+      <c r="H14" s="92"/>
+      <c r="I14" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="94"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3934,8 +4266,6 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4026,41 +4356,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -4103,14 +4433,14 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="103"/>
       <c r="H10" s="104"/>
       <c r="I10" s="103"/>
@@ -4121,10 +4451,10 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="105"/>
       <c r="H11" s="106"/>
       <c r="I11" s="105"/>
@@ -4135,14 +4465,14 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="85" t="s">
+      <c r="D12" s="88"/>
+      <c r="E12" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="103"/>
       <c r="H12" s="104"/>
       <c r="I12" s="103"/>
@@ -4153,14 +4483,14 @@
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="105"/>
       <c r="H13" s="106"/>
       <c r="I13" s="105"/>
@@ -4171,39 +4501,49 @@
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="93" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="81" t="s">
+      <c r="F14" s="102"/>
+      <c r="G14" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="93" t="s">
+      <c r="H14" s="92"/>
+      <c r="I14" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="94"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -4211,16 +4551,6 @@
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4311,45 +4641,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -4392,113 +4722,129 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="102"/>
+      <c r="I10" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="94"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="91" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10" ht="58" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -4507,22 +4853,6 @@
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4613,41 +4943,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -4690,132 +5020,117 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="91" t="s">
+      <c r="D11" s="88"/>
+      <c r="E11" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="85" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="95" t="s">
+      <c r="H14" s="111"/>
+      <c r="I14" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="96"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="114"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -4827,6 +5142,21 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
